--- a/data/trans_orig/P16A_n_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>46405</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33762</v>
+        <v>35095</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58751</v>
+        <v>59045</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1699756972616002</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1236668251024279</v>
+        <v>0.1285467842966222</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2151985114080022</v>
+        <v>0.2162735576390654</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -765,19 +765,19 @@
         <v>70177</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55864</v>
+        <v>56524</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83754</v>
+        <v>85426</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2690453772703905</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2141721213777217</v>
+        <v>0.2167029112488669</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3210975175831154</v>
+        <v>0.3275045156435293</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>117</v>
@@ -786,19 +786,19 @@
         <v>116582</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>98482</v>
+        <v>98688</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>137539</v>
+        <v>135410</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2183811323630467</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1844761050695055</v>
+        <v>0.1848611276859792</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2576367396739921</v>
+        <v>0.2536484678586488</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>226605</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>214259</v>
+        <v>213965</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>239248</v>
+        <v>237915</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8300243027383998</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7848014885919978</v>
+        <v>0.7837264423609346</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8763331748975722</v>
+        <v>0.8714532157033777</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>177</v>
@@ -836,19 +836,19 @@
         <v>190661</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>177084</v>
+        <v>175412</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>204974</v>
+        <v>204314</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7309546227296095</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6789024824168847</v>
+        <v>0.6724954843564707</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7858278786222783</v>
+        <v>0.7832970887511331</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>399</v>
@@ -857,19 +857,19 @@
         <v>417266</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>396309</v>
+        <v>398438</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>435366</v>
+        <v>435160</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7816188676369533</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7423632603260079</v>
+        <v>0.7463515321413512</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8155238949304945</v>
+        <v>0.8151388723140207</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>67958</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54200</v>
+        <v>54760</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87508</v>
+        <v>86292</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.137825683041054</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1099227278957594</v>
+        <v>0.1110573572504452</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1774743092269013</v>
+        <v>0.1750084558184598</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>153</v>
@@ -982,19 +982,19 @@
         <v>154593</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>135031</v>
+        <v>135655</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>175519</v>
+        <v>176683</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.306763338740447</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2679451734023759</v>
+        <v>0.2691830715375655</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3482871048480267</v>
+        <v>0.3505964662158879</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>218</v>
@@ -1003,19 +1003,19 @@
         <v>222551</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>198241</v>
+        <v>195879</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>249239</v>
+        <v>247430</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2232157622192655</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1988331416999349</v>
+        <v>0.196464053524117</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2499829480635126</v>
+        <v>0.2481690203492234</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>425117</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>405567</v>
+        <v>406783</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>438875</v>
+        <v>438315</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.862174316958946</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8225256907730983</v>
+        <v>0.8249915441815401</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8900772721042406</v>
+        <v>0.8889426427495547</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>346</v>
@@ -1053,19 +1053,19 @@
         <v>349356</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>328430</v>
+        <v>327266</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>368918</v>
+        <v>368294</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.693236661259553</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6517128951519735</v>
+        <v>0.6494035337841122</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7320548265976244</v>
+        <v>0.7308169284624347</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>746</v>
@@ -1074,19 +1074,19 @@
         <v>774473</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>747785</v>
+        <v>749594</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>798783</v>
+        <v>801145</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7767842377807345</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7500170519364874</v>
+        <v>0.7518309796507766</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8011668583000651</v>
+        <v>0.8035359464758829</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>50841</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38278</v>
+        <v>38196</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64311</v>
+        <v>64254</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1594524542116268</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1200522082446124</v>
+        <v>0.1197948648005364</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.201697875033178</v>
+        <v>0.2015191404992661</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -1199,19 +1199,19 @@
         <v>88830</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74550</v>
+        <v>74948</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>106147</v>
+        <v>107015</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2648383704123108</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2222631177942578</v>
+        <v>0.2234508603214433</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3164678740684333</v>
+        <v>0.3190549104247556</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>139</v>
@@ -1220,19 +1220,19 @@
         <v>139671</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>119206</v>
+        <v>119756</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>160038</v>
+        <v>158896</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2134796205649142</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1821998455398652</v>
+        <v>0.1830413896908536</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.244610544928265</v>
+        <v>0.2428646354363641</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>268005</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>254535</v>
+        <v>254592</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>280568</v>
+        <v>280650</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8405475457883732</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7983021249668223</v>
+        <v>0.7984808595007334</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8799477917553876</v>
+        <v>0.8802051351994634</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>247</v>
@@ -1270,19 +1270,19 @@
         <v>246582</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>229265</v>
+        <v>228397</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>260862</v>
+        <v>260464</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7351616295876892</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6835321259315675</v>
+        <v>0.6809450895752444</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7777368822057426</v>
+        <v>0.7765491396785568</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>506</v>
@@ -1291,19 +1291,19 @@
         <v>514587</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>494220</v>
+        <v>495362</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>535052</v>
+        <v>534502</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7865203794350858</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.755389455071735</v>
+        <v>0.7571353645636361</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8178001544601348</v>
+        <v>0.8169586103091465</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>64609</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50972</v>
+        <v>51557</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>79473</v>
+        <v>79448</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.180133601765266</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1421142764227673</v>
+        <v>0.1437445935534244</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2215767267562476</v>
+        <v>0.2215064137495001</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>122</v>
@@ -1416,19 +1416,19 @@
         <v>118406</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>100713</v>
+        <v>100131</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>135883</v>
+        <v>134896</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3187624348334188</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2711314986759243</v>
+        <v>0.2695643865850468</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3658113321593538</v>
+        <v>0.3631537236776708</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>190</v>
@@ -1437,19 +1437,19 @@
         <v>183015</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>161396</v>
+        <v>162359</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>205927</v>
+        <v>206838</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2506617448635435</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2210520141618659</v>
+        <v>0.2223705579492256</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2820425644991569</v>
+        <v>0.2832909504191599</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>294062</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>279198</v>
+        <v>279223</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>307699</v>
+        <v>307114</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.819866398234734</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7784232732437523</v>
+        <v>0.7784935862504997</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8578857235772326</v>
+        <v>0.8562554064465753</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>262</v>
@@ -1487,19 +1487,19 @@
         <v>253050</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>235573</v>
+        <v>236560</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>270743</v>
+        <v>271325</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6812375651665812</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6341886678406462</v>
+        <v>0.6368462763223294</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7288685013240758</v>
+        <v>0.7304356134149533</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>556</v>
@@ -1508,19 +1508,19 @@
         <v>547112</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>524200</v>
+        <v>523289</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>568731</v>
+        <v>567768</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7493382551364565</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7179574355008431</v>
+        <v>0.7167090495808401</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7789479858381342</v>
+        <v>0.7776294420507743</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>31488</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22797</v>
+        <v>22613</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42255</v>
+        <v>41595</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1548786347384996</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1121322942408536</v>
+        <v>0.1112257864488954</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2078360225949319</v>
+        <v>0.2045902906095564</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>70</v>
@@ -1633,19 +1633,19 @@
         <v>74517</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>60075</v>
+        <v>61988</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>89381</v>
+        <v>89277</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3588257717919574</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2892835690472631</v>
+        <v>0.2984948745202895</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4304020000789034</v>
+        <v>0.4299007712750015</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>104</v>
@@ -1654,19 +1654,19 @@
         <v>106005</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90310</v>
+        <v>90633</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>124460</v>
+        <v>125915</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2579340183066281</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2197445630992267</v>
+        <v>0.2205312560851809</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.302839666927552</v>
+        <v>0.306379889513287</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>171820</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>161053</v>
+        <v>161713</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>180511</v>
+        <v>180695</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8451213652615005</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7921639774050679</v>
+        <v>0.7954097093904435</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8878677057591463</v>
+        <v>0.8887742135511044</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>128</v>
@@ -1704,19 +1704,19 @@
         <v>133151</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>118287</v>
+        <v>118391</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>147593</v>
+        <v>145680</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6411742282080426</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5695979999210959</v>
+        <v>0.5700992287249983</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7107164309527368</v>
+        <v>0.7015051254797104</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>300</v>
@@ -1725,19 +1725,19 @@
         <v>304971</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>286516</v>
+        <v>285061</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>320666</v>
+        <v>320343</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7420659816933719</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.697160333072448</v>
+        <v>0.693620110486713</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7802554369007734</v>
+        <v>0.7794687439148191</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>49012</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>36731</v>
+        <v>37601</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62486</v>
+        <v>63426</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1809806836856503</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1356325860157879</v>
+        <v>0.1388469571693804</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2307375944073559</v>
+        <v>0.2342090109053433</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>78</v>
@@ -1850,19 +1850,19 @@
         <v>81650</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66667</v>
+        <v>66247</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>99085</v>
+        <v>96319</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2935528127350606</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.239685377843863</v>
+        <v>0.2381735443887215</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3562348385181298</v>
+        <v>0.3462925545561188</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>127</v>
@@ -1871,19 +1871,19 @@
         <v>130662</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>112464</v>
+        <v>111713</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>150779</v>
+        <v>149434</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.238018623105655</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2048694021283505</v>
+        <v>0.2035016509241679</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2746646656068052</v>
+        <v>0.2722152503716689</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>221799</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>208325</v>
+        <v>207385</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234080</v>
+        <v>233210</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8190193163143498</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7692624055926442</v>
+        <v>0.7657909890946565</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8643674139842121</v>
+        <v>0.8611530428306196</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>192</v>
@@ -1921,19 +1921,19 @@
         <v>196494</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>179059</v>
+        <v>181825</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>211477</v>
+        <v>211897</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7064471872649394</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6437651614818698</v>
+        <v>0.653707445443881</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7603146221561368</v>
+        <v>0.7618264556112785</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>409</v>
@@ -1942,19 +1942,19 @@
         <v>418293</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>398176</v>
+        <v>399521</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>436491</v>
+        <v>437242</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.761981376894345</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7253353343931949</v>
+        <v>0.7277847496283313</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7951305978716491</v>
+        <v>0.7964983490758323</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>107265</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>88243</v>
+        <v>90596</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>126398</v>
+        <v>126837</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1744073961460516</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1434778437109998</v>
+        <v>0.1473040248453392</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.205516789764764</v>
+        <v>0.2062303504402272</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>180</v>
@@ -2067,19 +2067,19 @@
         <v>181143</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>160223</v>
+        <v>159031</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>206832</v>
+        <v>205121</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2838257853060047</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2510474529150202</v>
+        <v>0.249179108924196</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3240761433872083</v>
+        <v>0.3213957024741124</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>290</v>
@@ -2088,19 +2088,19 @@
         <v>288408</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>262133</v>
+        <v>257254</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>321324</v>
+        <v>321209</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2301290156472208</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2091634649210231</v>
+        <v>0.2052699718964415</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2563936927863611</v>
+        <v>0.2563016409091577</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>507762</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>488629</v>
+        <v>488190</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>526784</v>
+        <v>524431</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8255926038539484</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.794483210235236</v>
+        <v>0.7937696495597728</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8565221562890002</v>
+        <v>0.8526959751546608</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>441</v>
@@ -2138,19 +2138,19 @@
         <v>457076</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>431387</v>
+        <v>433098</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>477996</v>
+        <v>479188</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7161742146939952</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6759238566127916</v>
+        <v>0.6786042975258876</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7489525470849796</v>
+        <v>0.7508208910758035</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>929</v>
@@ -2159,19 +2159,19 @@
         <v>964838</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>931922</v>
+        <v>932037</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>991113</v>
+        <v>995992</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7698709843527792</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7436063072136389</v>
+        <v>0.7436983590908427</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7908365350789769</v>
+        <v>0.7947300281035586</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>154523</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>134486</v>
+        <v>132944</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>178759</v>
+        <v>177792</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2077490869436077</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1808101449727042</v>
+        <v>0.1787371723774751</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2403333797632651</v>
+        <v>0.2390335360864298</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>219</v>
@@ -2284,19 +2284,19 @@
         <v>237198</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>210614</v>
+        <v>209715</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>264169</v>
+        <v>262886</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3027367179783115</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2688082391142328</v>
+        <v>0.2676608149134542</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3371602776364072</v>
+        <v>0.3355231307916546</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>377</v>
@@ -2305,19 +2305,19 @@
         <v>391720</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>358182</v>
+        <v>356144</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>427171</v>
+        <v>427646</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2564779282759652</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.23451884307898</v>
+        <v>0.2331847340770365</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2796894614111304</v>
+        <v>0.2800003093223422</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>589272</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>565036</v>
+        <v>566003</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>609309</v>
+        <v>610851</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7922509130563923</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7596666202367347</v>
+        <v>0.7609664639135701</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8191898550272957</v>
+        <v>0.8212628276225248</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>526</v>
@@ -2355,19 +2355,19 @@
         <v>546313</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>519342</v>
+        <v>520625</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>572897</v>
+        <v>573796</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6972632820216885</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6628397223635926</v>
+        <v>0.6644768692083453</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7311917608857669</v>
+        <v>0.7323391850865456</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1104</v>
@@ -2376,19 +2376,19 @@
         <v>1135586</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1100135</v>
+        <v>1099660</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1169124</v>
+        <v>1171162</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7435220717240348</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7203105385888696</v>
+        <v>0.7199996906776579</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.76548115692102</v>
+        <v>0.7668152659229636</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>572101</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>531347</v>
+        <v>530181</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>614860</v>
+        <v>616674</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1746049280542592</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.162167081398725</v>
+        <v>0.1618109975640701</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1876550404954107</v>
+        <v>0.1882087690837782</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>978</v>
@@ -2501,19 +2501,19 @@
         <v>1006514</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>952948</v>
+        <v>949422</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1056861</v>
+        <v>1057767</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2978558674088527</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2820041681539491</v>
+        <v>0.2809607638758289</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3127551671621425</v>
+        <v>0.3130232135071188</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1562</v>
@@ -2522,19 +2522,19 @@
         <v>1578614</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1514495</v>
+        <v>1511258</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1655316</v>
+        <v>1653263</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2371808704929737</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2275471858814417</v>
+        <v>0.2270608141665972</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2487050156102262</v>
+        <v>0.2483965652012778</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2704442</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2661683</v>
+        <v>2659869</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2745196</v>
+        <v>2746362</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8253950719457408</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8123449595045892</v>
+        <v>0.8117912309162223</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8378329186012747</v>
+        <v>0.8381890024359302</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2319</v>
@@ -2572,19 +2572,19 @@
         <v>2372683</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2322336</v>
+        <v>2321430</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2426249</v>
+        <v>2429775</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7021441325911474</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6872448328378575</v>
+        <v>0.6869767864928813</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7179958318460508</v>
+        <v>0.7190392361241716</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4949</v>
@@ -2593,19 +2593,19 @@
         <v>5077127</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5000425</v>
+        <v>5002478</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5141246</v>
+        <v>5144483</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7628191295070262</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7512949843897736</v>
+        <v>0.7516034347987216</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7724528141185583</v>
+        <v>0.7729391858334027</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>72944</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58557</v>
+        <v>58715</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88864</v>
+        <v>89383</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2474875753902389</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1986744709832556</v>
+        <v>0.199210357487415</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3015025866749519</v>
+        <v>0.3032622711658671</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>108</v>
@@ -2962,19 +2962,19 @@
         <v>118980</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>102360</v>
+        <v>99397</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>135728</v>
+        <v>137070</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.414210414587888</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.356351186399609</v>
+        <v>0.346035755731677</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.472516263059835</v>
+        <v>0.4771879817605987</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>176</v>
@@ -2983,19 +2983,19 @@
         <v>191924</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>170105</v>
+        <v>168604</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>216380</v>
+        <v>217893</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3297757168620676</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.292284505875858</v>
+        <v>0.2897053699214459</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3717975950131549</v>
+        <v>0.3743978390241712</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>221794</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>205874</v>
+        <v>205355</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>236181</v>
+        <v>236023</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7525124246097612</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6984974133250481</v>
+        <v>0.6967377288341329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8013255290167449</v>
+        <v>0.800789642512585</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>148</v>
@@ -3033,19 +3033,19 @@
         <v>168265</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>151517</v>
+        <v>150175</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>184885</v>
+        <v>187848</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5857895854121119</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5274837369401649</v>
+        <v>0.5228120182394015</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6436488136003909</v>
+        <v>0.6539642442683231</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>362</v>
@@ -3054,19 +3054,19 @@
         <v>390059</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>365603</v>
+        <v>364090</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>411878</v>
+        <v>413379</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6702242831379324</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.628202404986845</v>
+        <v>0.6256021609758288</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7077154941241419</v>
+        <v>0.7102946300785541</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>131038</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>110614</v>
+        <v>112098</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>153398</v>
+        <v>155242</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2592108773500495</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2188092301823239</v>
+        <v>0.221745658743681</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3034414845440053</v>
+        <v>0.3070884826555608</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>197</v>
@@ -3179,19 +3179,19 @@
         <v>218291</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>194423</v>
+        <v>198035</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>241831</v>
+        <v>243059</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4167726840452531</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3712025384322868</v>
+        <v>0.3780984411511946</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.461717508900064</v>
+        <v>0.4640610475004306</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>309</v>
@@ -3200,19 +3200,19 @@
         <v>349329</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>313504</v>
+        <v>318328</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>379072</v>
+        <v>382292</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3393876779286085</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3045820859444804</v>
+        <v>0.3092687018531942</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3682841862284758</v>
+        <v>0.3714128506464614</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>374489</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>352129</v>
+        <v>350285</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>394913</v>
+        <v>393429</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7407891226499506</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6965585154559951</v>
+        <v>0.6929115173444392</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7811907698176763</v>
+        <v>0.7782543412563191</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>283</v>
@@ -3250,19 +3250,19 @@
         <v>305474</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>281934</v>
+        <v>280706</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>329342</v>
+        <v>325730</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.583227315954747</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.538282491099936</v>
+        <v>0.5359389524995695</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6287974615677132</v>
+        <v>0.6219015588488054</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>643</v>
@@ -3271,19 +3271,19 @@
         <v>679963</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>650220</v>
+        <v>647000</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>715788</v>
+        <v>710964</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6606123220713915</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6317158137715241</v>
+        <v>0.6285871493535384</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6954179140555196</v>
+        <v>0.6907312981468058</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>96621</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79695</v>
+        <v>81125</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112777</v>
+        <v>112999</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2981712928254191</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2459382127490558</v>
+        <v>0.2503507830363142</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3480269286527983</v>
+        <v>0.3487135026075657</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>139</v>
@@ -3396,19 +3396,19 @@
         <v>148921</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>130357</v>
+        <v>129178</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>167170</v>
+        <v>168838</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4366929069401306</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3822551008716785</v>
+        <v>0.3787999119896338</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4902044835559984</v>
+        <v>0.4950964281238808</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>230</v>
@@ -3417,19 +3417,19 @@
         <v>245542</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>221188</v>
+        <v>220680</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>271633</v>
+        <v>269289</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3691997942686606</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3325798460466148</v>
+        <v>0.3318169962681745</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4084296081844127</v>
+        <v>0.4049063773582098</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>227425</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>211269</v>
+        <v>211047</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>244351</v>
+        <v>242921</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7018287071745809</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6519730713472016</v>
+        <v>0.6512864973924343</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7540617872509441</v>
+        <v>0.7496492169636856</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>178</v>
@@ -3467,19 +3467,19 @@
         <v>192099</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>173850</v>
+        <v>172182</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>210663</v>
+        <v>211842</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5633070930598695</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5097955164440017</v>
+        <v>0.5049035718761191</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6177448991283215</v>
+        <v>0.6212000880103662</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>406</v>
@@ -3488,19 +3488,19 @@
         <v>419524</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>393433</v>
+        <v>395777</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>443878</v>
+        <v>444386</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6308002057313394</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5915703918155872</v>
+        <v>0.59509362264179</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6674201539533851</v>
+        <v>0.6681830037318255</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>91863</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74075</v>
+        <v>75634</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>112153</v>
+        <v>110376</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2456347242684579</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1980712395045535</v>
+        <v>0.2022396758040615</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.299887933888399</v>
+        <v>0.2951358906673145</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>169</v>
@@ -3613,19 +3613,19 @@
         <v>176228</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>155353</v>
+        <v>157137</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>197155</v>
+        <v>196542</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.453084776554487</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3994160260581755</v>
+        <v>0.4040029826915165</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5068880128526803</v>
+        <v>0.5053132196515561</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>249</v>
@@ -3634,19 +3634,19 @@
         <v>268091</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>239741</v>
+        <v>239852</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>295223</v>
+        <v>295306</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3513948535509753</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3142362204944618</v>
+        <v>0.3143812776716992</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3869574029136586</v>
+        <v>0.3870667841510962</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>282119</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>261829</v>
+        <v>263606</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>299907</v>
+        <v>298348</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7543652757315421</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.700112066111601</v>
+        <v>0.7048641093326854</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8019287604954464</v>
+        <v>0.7977603241959386</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>202</v>
@@ -3684,19 +3684,19 @@
         <v>212723</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>191796</v>
+        <v>192409</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>233598</v>
+        <v>231814</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.546915223445513</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4931119871473197</v>
+        <v>0.4946867803484437</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6005839739418245</v>
+        <v>0.5959970173084835</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>466</v>
@@ -3705,19 +3705,19 @@
         <v>494842</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>467710</v>
+        <v>467627</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>523192</v>
+        <v>523081</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6486051464490247</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6130425970863413</v>
+        <v>0.6129332158489038</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6857637795055385</v>
+        <v>0.6856187223283008</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>58443</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45641</v>
+        <v>44909</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71767</v>
+        <v>72298</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2748710479341743</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2146619591683204</v>
+        <v>0.2112199937367367</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3375392596771448</v>
+        <v>0.3400377466115204</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>112</v>
@@ -3830,19 +3830,19 @@
         <v>117994</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103371</v>
+        <v>103258</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132781</v>
+        <v>131706</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5373331737797099</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4707447011259104</v>
+        <v>0.470227801707467</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6046752787573703</v>
+        <v>0.5997799904151982</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>164</v>
@@ -3851,19 +3851,19 @@
         <v>176436</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>154071</v>
+        <v>155390</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>198038</v>
+        <v>197398</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4082193017354478</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3564736192362994</v>
+        <v>0.3595256449583523</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.458198664004451</v>
+        <v>0.4567196707545876</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>154175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>140851</v>
+        <v>140320</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>166977</v>
+        <v>167709</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7251289520658256</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6624607403228553</v>
+        <v>0.6599622533884796</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7853380408316798</v>
+        <v>0.7887800062632633</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>100</v>
@@ -3901,19 +3901,19 @@
         <v>101597</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>86810</v>
+        <v>87885</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>116220</v>
+        <v>116333</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4626668262202901</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3953247212426294</v>
+        <v>0.4002200095848017</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5292552988740896</v>
+        <v>0.5297721982925329</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>244</v>
@@ -3922,19 +3922,19 @@
         <v>255773</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>234171</v>
+        <v>234811</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>278138</v>
+        <v>276819</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5917806982645522</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5418013359955489</v>
+        <v>0.5432803292454123</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6435263807637004</v>
+        <v>0.6404743550416476</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>88796</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74239</v>
+        <v>73566</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>103473</v>
+        <v>105296</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3240961121331143</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2709626700295003</v>
+        <v>0.2685065003797534</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.37766623035017</v>
+        <v>0.384318549489815</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>119</v>
@@ -4047,19 +4047,19 @@
         <v>122965</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>106568</v>
+        <v>107750</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>139972</v>
+        <v>138240</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4391136113122861</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.380558836437677</v>
+        <v>0.3847793904952477</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4998430758365298</v>
+        <v>0.4936607293268338</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>206</v>
@@ -4068,19 +4068,19 @@
         <v>211762</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>190394</v>
+        <v>188416</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>234248</v>
+        <v>232595</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.382232876312088</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3436643659667102</v>
+        <v>0.3400945054939597</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.422821613881915</v>
+        <v>0.4198381175451039</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>185185</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>170508</v>
+        <v>168685</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>199742</v>
+        <v>200415</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6759038878668857</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6223337696498299</v>
+        <v>0.615681450510185</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7290373299704997</v>
+        <v>0.7314934996202466</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>150</v>
@@ -4118,19 +4118,19 @@
         <v>157066</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>140059</v>
+        <v>141791</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>173463</v>
+        <v>172281</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5608863886877139</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5001569241634701</v>
+        <v>0.5063392706731662</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6194411635623229</v>
+        <v>0.6152206095047523</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>324</v>
@@ -4139,19 +4139,19 @@
         <v>342250</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>319764</v>
+        <v>321417</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>363618</v>
+        <v>365596</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6177671236879121</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5771783861180849</v>
+        <v>0.5801618824548962</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6563356340332896</v>
+        <v>0.6599054945060402</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>161232</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>139657</v>
+        <v>139325</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>186482</v>
+        <v>185595</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2432628736234727</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.210711812024537</v>
+        <v>0.2102098785665775</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.281359403070736</v>
+        <v>0.2800209939111823</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>236</v>
@@ -4264,19 +4264,19 @@
         <v>262926</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>237877</v>
+        <v>236156</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>287892</v>
+        <v>291839</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3789360974765286</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3428341518583787</v>
+        <v>0.3403539557799997</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4149180068332565</v>
+        <v>0.4206067784631424</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>385</v>
@@ -4285,19 +4285,19 @@
         <v>424158</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>389411</v>
+        <v>387347</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>460539</v>
+        <v>463211</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.312652836573134</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2870402606714452</v>
+        <v>0.2855193486553312</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3394696928062518</v>
+        <v>0.3414399102271148</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>501556</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>476306</v>
+        <v>477193</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>523131</v>
+        <v>523463</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7567371263765272</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7186405969292639</v>
+        <v>0.7199790060888176</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.789288187975463</v>
+        <v>0.7897901214334224</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>400</v>
@@ -4335,19 +4335,19 @@
         <v>430927</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>405961</v>
+        <v>402014</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>455976</v>
+        <v>457697</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6210639025234714</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5850819931667436</v>
+        <v>0.5793932215368578</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6571658481416214</v>
+        <v>0.6596460442200004</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>869</v>
@@ -4356,19 +4356,19 @@
         <v>932483</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>896102</v>
+        <v>893430</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>967230</v>
+        <v>969294</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.687347163426866</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6605303071937479</v>
+        <v>0.6585600897728853</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7129597393285548</v>
+        <v>0.7144806513446686</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>164625</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>141323</v>
+        <v>141039</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>187779</v>
+        <v>190713</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2113022468583328</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1813925139400268</v>
+        <v>0.1810286264901176</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2410208229309039</v>
+        <v>0.2447871572273242</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>237</v>
@@ -4481,19 +4481,19 @@
         <v>257173</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>230781</v>
+        <v>230239</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>286728</v>
+        <v>284808</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3121589079714951</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2801235626221675</v>
+        <v>0.2794665583029047</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3480333712825176</v>
+        <v>0.3457020012889888</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>384</v>
@@ -4502,19 +4502,19 @@
         <v>421798</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>385754</v>
+        <v>387011</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>458909</v>
+        <v>458927</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2631385468599776</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2406524297167777</v>
+        <v>0.241436720198089</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2862901548745005</v>
+        <v>0.2863015761740099</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>614473</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>591319</v>
+        <v>588385</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>637775</v>
+        <v>638059</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7886977531416671</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7589791770690963</v>
+        <v>0.7552128427726764</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8186074860599736</v>
+        <v>0.8189713735098826</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>520</v>
@@ -4552,19 +4552,19 @@
         <v>566680</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>537125</v>
+        <v>539045</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>593072</v>
+        <v>593614</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6878410920285049</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6519666287174828</v>
+        <v>0.6542979987110114</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7198764373778325</v>
+        <v>0.7205334416970953</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1090</v>
@@ -4573,19 +4573,19 @@
         <v>1181153</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1144042</v>
+        <v>1144024</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1217197</v>
+        <v>1215940</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7368614531400224</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7137098451254993</v>
+        <v>0.7136984238259899</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7593475702832221</v>
+        <v>0.758563279801911</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>865562</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>808433</v>
+        <v>809937</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>920273</v>
+        <v>923183</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2525876616565865</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2359163946098933</v>
+        <v>0.2363552998640854</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2685533183889923</v>
+        <v>0.2694024069474839</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1317</v>
@@ -4698,19 +4698,19 @@
         <v>1423478</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1368524</v>
+        <v>1365042</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1487093</v>
+        <v>1485925</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4000432683627744</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3845994062765402</v>
+        <v>0.3836209088048492</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4179212969313246</v>
+        <v>0.4175928916533557</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2103</v>
@@ -4719,19 +4719,19 @@
         <v>2289040</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2202425</v>
+        <v>2208685</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2374583</v>
+        <v>2363805</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3277037703365476</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3153037823008362</v>
+        <v>0.3162000005884409</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3399503918535019</v>
+        <v>0.3384073384178909</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2561217</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2506506</v>
+        <v>2503596</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2618346</v>
+        <v>2616842</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7474123383434136</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7314466816110077</v>
+        <v>0.7305975930525163</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7640836053901068</v>
+        <v>0.7636447001359148</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1981</v>
@@ -4769,19 +4769,19 @@
         <v>2134831</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2071216</v>
+        <v>2072384</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2189785</v>
+        <v>2193267</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5999567316372255</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5820787030686755</v>
+        <v>0.5824071083466442</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6154005937234599</v>
+        <v>0.6163790911951508</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4404</v>
@@ -4790,19 +4790,19 @@
         <v>4696048</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4610505</v>
+        <v>4621283</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4782663</v>
+        <v>4776403</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6722962296634524</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.660049608146498</v>
+        <v>0.6615926615821091</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6846962176991638</v>
+        <v>0.6837999994115591</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>54695</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41528</v>
+        <v>41486</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68278</v>
+        <v>68224</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1861880756443746</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1413664636786897</v>
+        <v>0.1412235400571255</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2324281310386761</v>
+        <v>0.2322434257467885</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>84</v>
@@ -5159,19 +5159,19 @@
         <v>89703</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>75729</v>
+        <v>76387</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>106311</v>
+        <v>106541</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3107093272490593</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2623080087172421</v>
+        <v>0.2645863203683719</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.36823709790584</v>
+        <v>0.3690336591688192</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>138</v>
@@ -5180,19 +5180,19 @@
         <v>144398</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>122765</v>
+        <v>126292</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>166548</v>
+        <v>168302</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2479080426153013</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2107682140521684</v>
+        <v>0.2168229787238563</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.285937282608555</v>
+        <v>0.2889490321522351</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>239066</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>225483</v>
+        <v>225537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>252233</v>
+        <v>252275</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8138119243556254</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.767571868961324</v>
+        <v>0.7677565742532115</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8586335363213105</v>
+        <v>0.8587764599428744</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>193</v>
@@ -5230,19 +5230,19 @@
         <v>199000</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>182392</v>
+        <v>182162</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>212974</v>
+        <v>212316</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6892906727509407</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6317629020941601</v>
+        <v>0.6309663408311809</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7376919912827582</v>
+        <v>0.7354136796316281</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>405</v>
@@ -5251,19 +5251,19 @@
         <v>438066</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>415916</v>
+        <v>414162</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>459699</v>
+        <v>456172</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7520919573846987</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.714062717391445</v>
+        <v>0.7110509678477649</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7892317859478318</v>
+        <v>0.7831770212761436</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>115445</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>96583</v>
+        <v>97695</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>134673</v>
+        <v>134253</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2297067697581234</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.192176972649904</v>
+        <v>0.1943896004413734</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2679668403730855</v>
+        <v>0.2671311656685031</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>175</v>
@@ -5376,19 +5376,19 @@
         <v>195528</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>175322</v>
+        <v>171017</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>217655</v>
+        <v>217381</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3737977273340873</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3351695491119488</v>
+        <v>0.3269400455927183</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4160998881258235</v>
+        <v>0.4155755183308937</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>286</v>
@@ -5397,19 +5397,19 @@
         <v>310972</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>278399</v>
+        <v>283235</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>340682</v>
+        <v>344946</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3031928386021558</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2714341589735029</v>
+        <v>0.2761491076137767</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.332159000586322</v>
+        <v>0.3363160329656839</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>387130</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>367902</v>
+        <v>368322</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>405992</v>
+        <v>404880</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7702932302418766</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7320331596269147</v>
+        <v>0.7328688343314969</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8078230273500961</v>
+        <v>0.8056103995586267</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>309</v>
@@ -5447,19 +5447,19 @@
         <v>327556</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>305429</v>
+        <v>305703</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>347762</v>
+        <v>352067</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6262022726659127</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5839001118741768</v>
+        <v>0.5844244816691062</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6648304508880511</v>
+        <v>0.6730599544072815</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>673</v>
@@ -5468,19 +5468,19 @@
         <v>714687</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>684977</v>
+        <v>680713</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>747260</v>
+        <v>742424</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6968071613978442</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6678409994136781</v>
+        <v>0.6636839670343161</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7285658410264971</v>
+        <v>0.7238508923862234</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>69182</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55373</v>
+        <v>56837</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>83703</v>
+        <v>84303</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2171674200588691</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1738189098390891</v>
+        <v>0.1784154645438565</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2627512330290701</v>
+        <v>0.2646343893501892</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -5593,19 +5593,19 @@
         <v>97683</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83728</v>
+        <v>81930</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>117365</v>
+        <v>116558</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2904554428723713</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2489627622418765</v>
+        <v>0.243615340502442</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3489796247273894</v>
+        <v>0.3465802878998004</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>165</v>
@@ -5614,19 +5614,19 @@
         <v>166865</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>147262</v>
+        <v>145161</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>191992</v>
+        <v>188604</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2548043117751209</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2248710081473702</v>
+        <v>0.2216623182587352</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2931733804081554</v>
+        <v>0.2880000662691345</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>249383</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>234862</v>
+        <v>234262</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>263192</v>
+        <v>261728</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7828325799411309</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.73724876697093</v>
+        <v>0.7353656106498109</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8261810901609109</v>
+        <v>0.8215845354561435</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>243</v>
@@ -5664,19 +5664,19 @@
         <v>238626</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>218944</v>
+        <v>219751</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>252581</v>
+        <v>254379</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7095445571276287</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6510203752726101</v>
+        <v>0.6534197121001992</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7510372377581235</v>
+        <v>0.756384659497558</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>502</v>
@@ -5685,19 +5685,19 @@
         <v>488009</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>462882</v>
+        <v>466270</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>507612</v>
+        <v>509713</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7451956882248791</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7068266195918445</v>
+        <v>0.7119999337308655</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7751289918526297</v>
+        <v>0.7783376817412648</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>111083</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>94276</v>
+        <v>93647</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129615</v>
+        <v>129899</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3002544451538692</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2548254631670915</v>
+        <v>0.2531239746738119</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3503446707582915</v>
+        <v>0.3511131620522721</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>154</v>
@@ -5810,19 +5810,19 @@
         <v>171174</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>152608</v>
+        <v>153070</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>191305</v>
+        <v>191352</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4419875312878299</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3940466480599331</v>
+        <v>0.3952416439571741</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4939671627416229</v>
+        <v>0.4940870972020897</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>267</v>
@@ -5831,19 +5831,19 @@
         <v>282258</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>256473</v>
+        <v>256478</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>310490</v>
+        <v>310857</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3727417775405324</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3386910264111486</v>
+        <v>0.3386976361864058</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.410024651101259</v>
+        <v>0.4105095693621803</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>258881</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>240349</v>
+        <v>240065</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>275688</v>
+        <v>276317</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6997455548461308</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6496553292417084</v>
+        <v>0.6488868379477278</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7451745368329084</v>
+        <v>0.7468760253261881</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>204</v>
@@ -5881,19 +5881,19 @@
         <v>216109</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>195978</v>
+        <v>195931</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>234675</v>
+        <v>234213</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.55801246871217</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5060328372583772</v>
+        <v>0.5059129027979102</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6059533519400671</v>
+        <v>0.6047583560428259</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>445</v>
@@ -5902,19 +5902,19 @@
         <v>474989</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>446757</v>
+        <v>446390</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>500774</v>
+        <v>500769</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6272582224594676</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5899753488987411</v>
+        <v>0.5894904306378198</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6613089735888515</v>
+        <v>0.6613023638135942</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>41482</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30913</v>
+        <v>31437</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54053</v>
+        <v>55836</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1963907470009212</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1463534996902128</v>
+        <v>0.148834259070919</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2559081278029373</v>
+        <v>0.2643471714748474</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -6027,19 +6027,19 @@
         <v>97476</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>83204</v>
+        <v>84200</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>111717</v>
+        <v>112286</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4459380408262259</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3806445478904254</v>
+        <v>0.3851996932695318</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5110853182215764</v>
+        <v>0.5136881162297343</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>138</v>
@@ -6048,19 +6048,19 @@
         <v>138958</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>121165</v>
+        <v>119710</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>158023</v>
+        <v>158911</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.323302750817449</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2819053631373418</v>
+        <v>0.2785187991747253</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3676594920092454</v>
+        <v>0.3697254108315871</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>169739</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>157168</v>
+        <v>155385</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>180308</v>
+        <v>179784</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8036092529990788</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7440918721970623</v>
+        <v>0.7356528285251522</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8536465003097871</v>
+        <v>0.851165740929081</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>127</v>
@@ -6098,19 +6098,19 @@
         <v>121111</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>106870</v>
+        <v>106301</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>135383</v>
+        <v>134387</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5540619591737741</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4889146817784236</v>
+        <v>0.4863118837702658</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6193554521095745</v>
+        <v>0.6148003067304683</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>297</v>
@@ -6119,19 +6119,19 @@
         <v>290850</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>271785</v>
+        <v>270897</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>308643</v>
+        <v>310098</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.676697249182551</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6323405079907545</v>
+        <v>0.6302745891684128</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7180946368626581</v>
+        <v>0.7214812008252747</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>54977</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42558</v>
+        <v>43407</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>68868</v>
+        <v>69813</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2089386299712618</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1617410312066298</v>
+        <v>0.1649698342667342</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2617334993797947</v>
+        <v>0.2653240553024135</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>75</v>
@@ -6244,19 +6244,19 @@
         <v>82970</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>67890</v>
+        <v>66728</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>97851</v>
+        <v>98740</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3037909433411587</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2485749694506313</v>
+        <v>0.2443210227709693</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3582765296526399</v>
+        <v>0.3615320194875243</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>132</v>
@@ -6265,19 +6265,19 @@
         <v>137946</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>118034</v>
+        <v>120339</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>158446</v>
+        <v>159876</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2572485028744399</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2201155733496181</v>
+        <v>0.2244125822669419</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2954768258321763</v>
+        <v>0.2981444201156461</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>208146</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>194255</v>
+        <v>193310</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>220565</v>
+        <v>219716</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7910613700287382</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7382665006202052</v>
+        <v>0.7346759446975866</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8382589687933701</v>
+        <v>0.8350301657332657</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>188</v>
@@ -6315,19 +6315,19 @@
         <v>190145</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>175264</v>
+        <v>174375</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>205225</v>
+        <v>206387</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6962090566588413</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6417234703473601</v>
+        <v>0.6384679805124758</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7514250305493687</v>
+        <v>0.7556789772290307</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>390</v>
@@ -6336,19 +6336,19 @@
         <v>398292</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>377792</v>
+        <v>376362</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>418204</v>
+        <v>415899</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7427514971255601</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.704523174167824</v>
+        <v>0.7018555798843538</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.779884426650382</v>
+        <v>0.7755874177330581</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>139529</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>119553</v>
+        <v>119257</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>163862</v>
+        <v>162916</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2125160603683675</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.182090251420117</v>
+        <v>0.1816397253109538</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.249577574851067</v>
+        <v>0.2481361223752875</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>179</v>
@@ -6461,19 +6461,19 @@
         <v>206668</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>183057</v>
+        <v>182069</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>235202</v>
+        <v>232953</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2989574887648316</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.264804062079014</v>
+        <v>0.2633742161326817</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3402338818798256</v>
+        <v>0.3369807420366285</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>307</v>
@@ -6482,19 +6482,19 @@
         <v>346197</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>311732</v>
+        <v>314313</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>378945</v>
+        <v>380191</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2568506319322602</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2312804470910119</v>
+        <v>0.2331954860728196</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2811472808404321</v>
+        <v>0.2820714139789207</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>517029</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>492696</v>
+        <v>493642</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>537005</v>
+        <v>537301</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7874839396316325</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.750422425148933</v>
+        <v>0.7518638776247124</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8179097485798831</v>
+        <v>0.8183602746890462</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>467</v>
@@ -6532,19 +6532,19 @@
         <v>484626</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>456092</v>
+        <v>458341</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>508237</v>
+        <v>509225</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7010425112351684</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6597661181201745</v>
+        <v>0.6630192579633717</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7351959379209859</v>
+        <v>0.7366257838673184</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>919</v>
@@ -6553,19 +6553,19 @@
         <v>1001655</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>968907</v>
+        <v>967661</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1036120</v>
+        <v>1033539</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7431493680677398</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7188527191595679</v>
+        <v>0.7179285860210793</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7687195529089879</v>
+        <v>0.7668045139271804</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>192574</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>167107</v>
+        <v>166777</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>220365</v>
+        <v>216663</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2473386659919784</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2146302078294949</v>
+        <v>0.2142055564830316</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2830338317743463</v>
+        <v>0.2782789155491081</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>249</v>
@@ -6678,19 +6678,19 @@
         <v>292635</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>263747</v>
+        <v>262470</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>323390</v>
+        <v>320989</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3542076992174985</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3192412581645395</v>
+        <v>0.3176956987731077</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3914340701866926</v>
+        <v>0.3885281966677303</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>437</v>
@@ -6699,19 +6699,19 @@
         <v>485208</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>449762</v>
+        <v>450035</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>523498</v>
+        <v>526946</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3023576215006892</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.280269119581002</v>
+        <v>0.2804392427841232</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3262177975198318</v>
+        <v>0.3283661920593894</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>586009</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>558218</v>
+        <v>561920</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>611476</v>
+        <v>611806</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7526613340080216</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.716966168225652</v>
+        <v>0.7217210844508916</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7853697921705048</v>
+        <v>0.7857944435169681</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>506</v>
@@ -6749,19 +6749,19 @@
         <v>533532</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>502777</v>
+        <v>505178</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>562420</v>
+        <v>563697</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6457923007825015</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6085659298133074</v>
+        <v>0.6114718033322697</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6807587418354605</v>
+        <v>0.6823043012268921</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1068</v>
@@ -6770,19 +6770,19 @@
         <v>1119542</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1081252</v>
+        <v>1077804</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1154988</v>
+        <v>1154715</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6976423784993108</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6737822024801682</v>
+        <v>0.6716338079406107</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.719730880418998</v>
+        <v>0.7195607572158768</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>778966</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>727453</v>
+        <v>726534</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>825578</v>
+        <v>823441</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2294890506953988</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2143130378385566</v>
+        <v>0.2140421273941102</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2432211743021607</v>
+        <v>0.2425915834669733</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1101</v>
@@ -6895,19 +6895,19 @@
         <v>1233836</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1173318</v>
+        <v>1171096</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1296841</v>
+        <v>1291898</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3480945393985906</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3310209156712248</v>
+        <v>0.330394044515654</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3658697484075641</v>
+        <v>0.3644753589976356</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1870</v>
@@ -6916,19 +6916,19 @@
         <v>2012802</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1933530</v>
+        <v>1940586</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2094580</v>
+        <v>2091869</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2900753972318618</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.278651129595837</v>
+        <v>0.2796680095254647</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3018608980188818</v>
+        <v>0.3014701974636741</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2615384</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2568772</v>
+        <v>2570909</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2666897</v>
+        <v>2667816</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7705109493046012</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7567788256978398</v>
+        <v>0.7574084165330267</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7856869621614436</v>
+        <v>0.7859578726058898</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2237</v>
@@ -6966,19 +6966,19 @@
         <v>2310706</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2247701</v>
+        <v>2252644</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2371224</v>
+        <v>2373446</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6519054606014094</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6341302515924359</v>
+        <v>0.6355246410023644</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6689790843287753</v>
+        <v>0.669605955484346</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4699</v>
@@ -6987,19 +6987,19 @@
         <v>4926090</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4844312</v>
+        <v>4847023</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5005362</v>
+        <v>4998306</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7099246027681382</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6981391019811186</v>
+        <v>0.6985298025363259</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.721348870404163</v>
+        <v>0.7203319904745352</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>84889</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>71536</v>
+        <v>71016</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>100528</v>
+        <v>100856</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2662384758669008</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2243594313724656</v>
+        <v>0.2227294957128745</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3152888587715106</v>
+        <v>0.3163180236491532</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>214</v>
@@ -7356,19 +7356,19 @@
         <v>114600</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>102973</v>
+        <v>101762</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>129933</v>
+        <v>128887</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3625886195709616</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3258022626638841</v>
+        <v>0.3219691310104177</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4110996975390391</v>
+        <v>0.4077924802622204</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>318</v>
@@ -7377,19 +7377,19 @@
         <v>199489</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>179866</v>
+        <v>180371</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>219131</v>
+        <v>221021</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.314202256350571</v>
+        <v>0.3142022563505709</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2832961667675722</v>
+        <v>0.2840905128910608</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3451391652041929</v>
+        <v>0.3481153570843732</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>233956</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>218317</v>
+        <v>217989</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>247309</v>
+        <v>247829</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7337615241330991</v>
+        <v>0.7337615241330994</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6847111412284894</v>
+        <v>0.6836819763508466</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7756405686275344</v>
+        <v>0.7772705042871255</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>324</v>
@@ -7427,19 +7427,19 @@
         <v>201461</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>186128</v>
+        <v>187174</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>213088</v>
+        <v>214299</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6374113804290383</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.588900302460961</v>
+        <v>0.59220751973778</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.674197737336116</v>
+        <v>0.6780308689895823</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>551</v>
@@ -7448,19 +7448,19 @@
         <v>435417</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>415775</v>
+        <v>413885</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>455040</v>
+        <v>454535</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6857977436494291</v>
+        <v>0.685797743649429</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6548608347958071</v>
+        <v>0.6518846429156266</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7167038332324278</v>
+        <v>0.7159094871089392</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>135068</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>113842</v>
+        <v>113428</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>160085</v>
+        <v>157392</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2545342161457197</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2145340248236148</v>
+        <v>0.2137539657207023</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3016780455677504</v>
+        <v>0.2966036477304806</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>304</v>
@@ -7573,19 +7573,19 @@
         <v>207709</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>187443</v>
+        <v>188648</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>228413</v>
+        <v>227071</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3800760441296301</v>
+        <v>0.38007604412963</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3429923686979545</v>
+        <v>0.3451966635444691</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.417959797137244</v>
+        <v>0.4155058093955666</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>424</v>
@@ -7594,19 +7594,19 @@
         <v>342777</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>311708</v>
+        <v>313907</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>374239</v>
+        <v>373598</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3182286412610903</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2893842805959588</v>
+        <v>0.2914265483280115</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3474376977668286</v>
+        <v>0.3468422036480888</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>395579</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>370562</v>
+        <v>373255</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>416805</v>
+        <v>417219</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7454657838542803</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6983219544322495</v>
+        <v>0.7033963522695192</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7854659751763851</v>
+        <v>0.7862460342792974</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>413</v>
@@ -7644,19 +7644,19 @@
         <v>338785</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>318081</v>
+        <v>319423</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>359051</v>
+        <v>357846</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.61992395587037</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5820402028627559</v>
+        <v>0.5844941906044331</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6570076313020454</v>
+        <v>0.6548033364555308</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>675</v>
@@ -7665,19 +7665,19 @@
         <v>734364</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>702902</v>
+        <v>703543</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>765433</v>
+        <v>763234</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6817713587389097</v>
+        <v>0.6817713587389098</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6525623022331715</v>
+        <v>0.6531577963519112</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7106157194040417</v>
+        <v>0.7085734516719884</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>112222</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>97801</v>
+        <v>97179</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>128731</v>
+        <v>128687</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.355140231254057</v>
+        <v>0.3551402312540571</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3095029758820289</v>
+        <v>0.3075358904378803</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4073858603885073</v>
+        <v>0.407246056653251</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>272</v>
@@ -7790,19 +7790,19 @@
         <v>155550</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>138815</v>
+        <v>139538</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>170613</v>
+        <v>170417</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4364716810767459</v>
+        <v>0.4364716810767458</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3895125529755734</v>
+        <v>0.3915406852194096</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4787379186475251</v>
+        <v>0.4781870732771819</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>425</v>
@@ -7811,19 +7811,19 @@
         <v>267772</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>246002</v>
+        <v>246099</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>287195</v>
+        <v>289026</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3982486470461749</v>
+        <v>0.3982486470461748</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.365869855807866</v>
+        <v>0.3660142247325899</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4271347108695769</v>
+        <v>0.4298583396964556</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>203771</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>187262</v>
+        <v>187306</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>218192</v>
+        <v>218814</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6448597687459429</v>
+        <v>0.644859768745943</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5926141396114928</v>
+        <v>0.592753943346749</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6904970241179711</v>
+        <v>0.6924641095621198</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>264</v>
@@ -7861,19 +7861,19 @@
         <v>200831</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>185768</v>
+        <v>185964</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>217566</v>
+        <v>216843</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5635283189232542</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5212620813524751</v>
+        <v>0.5218129267228183</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6104874470244266</v>
+        <v>0.6084593147805908</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>471</v>
@@ -7882,19 +7882,19 @@
         <v>404603</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>385180</v>
+        <v>383349</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>426373</v>
+        <v>426276</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6017513529538253</v>
+        <v>0.6017513529538252</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5728652891304231</v>
+        <v>0.5701416603035437</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6341301441921341</v>
+        <v>0.6339857752674096</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>121891</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>101082</v>
+        <v>99844</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>144207</v>
+        <v>143276</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3266587400020635</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2708914795687928</v>
+        <v>0.2675741195364701</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3864641244945622</v>
+        <v>0.3839688250446614</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>329</v>
@@ -8007,19 +8007,19 @@
         <v>190827</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>171027</v>
+        <v>170118</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>209024</v>
+        <v>210463</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.452237418046554</v>
+        <v>0.4522374180465541</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4053145019317431</v>
+        <v>0.4031597265107089</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4953633962963307</v>
+        <v>0.4987731286047455</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>448</v>
@@ -8028,19 +8028,19 @@
         <v>312718</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>284582</v>
+        <v>280649</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>340545</v>
+        <v>343501</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3933030786202474</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.35791598676928</v>
+        <v>0.3529702409915071</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4283009295568418</v>
+        <v>0.4320181311179526</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>251254</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>228938</v>
+        <v>229869</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>272063</v>
+        <v>273301</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6733412599979365</v>
+        <v>0.6733412599979366</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6135358755054379</v>
+        <v>0.6160311749553385</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7291085204312072</v>
+        <v>0.7324258804635299</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>270</v>
@@ -8078,19 +8078,19 @@
         <v>231134</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>212937</v>
+        <v>211498</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>250934</v>
+        <v>251843</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5477625819534462</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5046366037036694</v>
+        <v>0.5012268713952546</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.594685498068257</v>
+        <v>0.5968402734892913</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>443</v>
@@ -8099,19 +8099,19 @@
         <v>482389</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>454562</v>
+        <v>451606</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>510525</v>
+        <v>514458</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6066969213797526</v>
+        <v>0.6066969213797525</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.571699070443158</v>
+        <v>0.5679818688820476</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6420840132307201</v>
+        <v>0.6470297590084929</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>56941</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47562</v>
+        <v>47021</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68263</v>
+        <v>68303</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2768606303228367</v>
+        <v>0.2768606303228368</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2312595786913891</v>
+        <v>0.2286268244011038</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3319135463231725</v>
+        <v>0.3321098087687565</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>239</v>
@@ -8224,19 +8224,19 @@
         <v>97546</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>87594</v>
+        <v>85907</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108615</v>
+        <v>108163</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4261194356639578</v>
+        <v>0.4261194356639579</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3826428407038655</v>
+        <v>0.3752721874403847</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4744697796631829</v>
+        <v>0.4724958037422516</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>330</v>
@@ -8245,19 +8245,19 @@
         <v>154487</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>138826</v>
+        <v>139039</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>169377</v>
+        <v>169955</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.355483172694332</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.319446415733723</v>
+        <v>0.3199369712481715</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.389746922514402</v>
+        <v>0.3910778610294232</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>148724</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>137402</v>
+        <v>137362</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>158103</v>
+        <v>158644</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7231393696771631</v>
+        <v>0.7231393696771632</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6680864536768276</v>
+        <v>0.6678901912312439</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.768740421308611</v>
+        <v>0.7713731755988963</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>256</v>
@@ -8295,19 +8295,19 @@
         <v>131372</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>120303</v>
+        <v>120755</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>141324</v>
+        <v>143011</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5738805643360423</v>
+        <v>0.5738805643360422</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5255302203368171</v>
+        <v>0.5275041962577484</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6173571592961345</v>
+        <v>0.6247278125596153</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>444</v>
@@ -8316,19 +8316,19 @@
         <v>280095</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>265205</v>
+        <v>264627</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>295756</v>
+        <v>295543</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6445168273056679</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.610253077485598</v>
+        <v>0.6089221389705772</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6805535842662768</v>
+        <v>0.6800630287518284</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>99329</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>86127</v>
+        <v>86003</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>112955</v>
+        <v>112824</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3669247738436782</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.318154388495161</v>
+        <v>0.3176960559715669</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4172606596880647</v>
+        <v>0.4167743607624124</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>250</v>
@@ -8441,19 +8441,19 @@
         <v>117137</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>104357</v>
+        <v>105726</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>129445</v>
+        <v>130044</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4441225440745255</v>
+        <v>0.4441225440745252</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3956669123263974</v>
+        <v>0.4008564863429909</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4907878649944193</v>
+        <v>0.4930583324243301</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>424</v>
@@ -8462,19 +8462,19 @@
         <v>216466</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>198124</v>
+        <v>196758</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>236296</v>
+        <v>234280</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4050212420391038</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3707020008478966</v>
+        <v>0.3681455131975891</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.442122754922238</v>
+        <v>0.4383513861567273</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>171378</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>157752</v>
+        <v>157883</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>184580</v>
+        <v>184704</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6330752261563218</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5827393403119352</v>
+        <v>0.5832256392375875</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6818456115048389</v>
+        <v>0.6823039440284332</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>210</v>
@@ -8512,19 +8512,19 @@
         <v>146613</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>134305</v>
+        <v>133706</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>159393</v>
+        <v>158024</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5558774559254747</v>
+        <v>0.5558774559254744</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5092121350055805</v>
+        <v>0.5069416675756701</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6043330876736025</v>
+        <v>0.5991435136570094</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>407</v>
@@ -8533,19 +8533,19 @@
         <v>317991</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>298161</v>
+        <v>300177</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>336333</v>
+        <v>337699</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5949787579608962</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5578772450777622</v>
+        <v>0.5616486138432731</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6292979991521036</v>
+        <v>0.6318544868024107</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>258063</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>230396</v>
+        <v>230264</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>283821</v>
+        <v>291228</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3585771395363456</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3201342406912587</v>
+        <v>0.3199501384102248</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3943678679306499</v>
+        <v>0.4046586778231682</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>451</v>
@@ -8658,19 +8658,19 @@
         <v>342298</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>317052</v>
+        <v>316686</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>367996</v>
+        <v>369124</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4433590687673422</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.410659005641665</v>
+        <v>0.4101847254580825</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4766438426059459</v>
+        <v>0.478104361537121</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>682</v>
@@ -8679,19 +8679,19 @@
         <v>600362</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>560781</v>
+        <v>563206</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>640858</v>
+        <v>637685</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4024562974307847</v>
+        <v>0.4024562974307848</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3759232859053435</v>
+        <v>0.3775486302299291</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4296033638720881</v>
+        <v>0.4274762837488484</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>461624</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>435866</v>
+        <v>428459</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>489291</v>
+        <v>489423</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6414228604636546</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6056321320693504</v>
+        <v>0.5953413221768321</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6798657593087414</v>
+        <v>0.6800498615897752</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>509</v>
@@ -8729,19 +8729,19 @@
         <v>429759</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>404061</v>
+        <v>402933</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>455005</v>
+        <v>455371</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5566409312326577</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5233561573940539</v>
+        <v>0.5218956384628791</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5893409943583348</v>
+        <v>0.5898152745419175</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>877</v>
@@ -8750,19 +8750,19 @@
         <v>891382</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>850886</v>
+        <v>854059</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>930963</v>
+        <v>928538</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5975437025692153</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5703966361279117</v>
+        <v>0.5725237162511515</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6240767140946565</v>
+        <v>0.6224513697700707</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>178161</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>158630</v>
+        <v>155946</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>204678</v>
+        <v>201247</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2232394980246549</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1987660802207269</v>
+        <v>0.1954028422785037</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.256466203772423</v>
+        <v>0.2521660513144917</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>420</v>
@@ -8875,19 +8875,19 @@
         <v>285657</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>261295</v>
+        <v>262320</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>310873</v>
+        <v>309578</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3436141541426353</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3143086340510539</v>
+        <v>0.315542590831851</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3739461625415358</v>
+        <v>0.3723889614006639</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>635</v>
@@ -8896,19 +8896,19 @@
         <v>463818</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>432743</v>
+        <v>429470</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>499313</v>
+        <v>494937</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2846553761945353</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.265583764652232</v>
+        <v>0.2635751815274464</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3064391044712209</v>
+        <v>0.3037533105436189</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>619911</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>593394</v>
+        <v>596825</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>639442</v>
+        <v>642126</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7767605019753451</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7435337962275771</v>
+        <v>0.7478339486855082</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8012339197792732</v>
+        <v>0.8045971577214963</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>642</v>
@@ -8946,19 +8946,19 @@
         <v>545674</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>520458</v>
+        <v>521753</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>570036</v>
+        <v>569011</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6563858458573647</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.626053837458464</v>
+        <v>0.6276110385993362</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6856913659489461</v>
+        <v>0.6844574091681492</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1189</v>
@@ -8967,19 +8967,19 @@
         <v>1165585</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1130090</v>
+        <v>1134466</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1196660</v>
+        <v>1199933</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7153446238054646</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6935608955287792</v>
+        <v>0.6962466894563811</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.734416235347768</v>
+        <v>0.7364248184725537</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>1046564</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>995477</v>
+        <v>988017</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1104283</v>
+        <v>1105893</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2962452644078141</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2817844337124596</v>
+        <v>0.279672693088771</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3125834626981234</v>
+        <v>0.313039322144691</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2479</v>
@@ -9092,19 +9092,19 @@
         <v>1511326</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1454484</v>
+        <v>1455857</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1558265</v>
+        <v>1564461</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.4044272088066748</v>
+        <v>0.4044272088066747</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3892165264919744</v>
+        <v>0.3895839724207166</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4169880532585944</v>
+        <v>0.4186461278401625</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3686</v>
@@ -9113,19 +9113,19 @@
         <v>2557890</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2480578</v>
+        <v>2468512</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2627536</v>
+        <v>2632182</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3518555473516288</v>
+        <v>0.3518555473516289</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3412208082512383</v>
+        <v>0.3395609369117333</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3614358832386632</v>
+        <v>0.362074918592791</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2486198</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2428479</v>
+        <v>2426869</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2537285</v>
+        <v>2544745</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.7037547355921862</v>
+        <v>0.703754735592186</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6874165373018769</v>
+        <v>0.6869606778553089</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7182155662875406</v>
+        <v>0.720327306911229</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2888</v>
@@ -9163,19 +9163,19 @@
         <v>2225628</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2178689</v>
+        <v>2172493</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2282470</v>
+        <v>2281097</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.5955727911933254</v>
+        <v>0.5955727911933253</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5830119467414053</v>
+        <v>0.5813538721598376</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6107834735080256</v>
+        <v>0.6104160275792834</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5057</v>
@@ -9184,19 +9184,19 @@
         <v>4711826</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4642180</v>
+        <v>4637534</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4789138</v>
+        <v>4801204</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6481444526483711</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6385641167613368</v>
+        <v>0.637925081407209</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6587791917487616</v>
+        <v>0.6604390630882666</v>
       </c>
     </row>
     <row r="30">
